--- a/hw4_GA/Results.xlsx
+++ b/hw4_GA/Results.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Marc" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Golden" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -367,8 +367,8 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -452,36 +452,31 @@
           <t xml:space="preserve"> 2016.57</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2016.57</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>16525.29563384513</v>
+        <v>15855.83983353778</v>
       </c>
       <c r="H3" t="n">
-        <v>16981.03317026778</v>
+        <v>17109.80429657463</v>
       </c>
       <c r="I3" t="n">
-        <v>17760.84987146394</v>
+        <v>17630.76229642533</v>
       </c>
       <c r="J3" t="n">
-        <v>341.374</v>
+        <v>487.226</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>50.803</t>
+          <t>48.131</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>58.603</t>
+          <t>57.742</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>71.423</t>
+          <t>65.264</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -507,41 +502,6 @@
           <t xml:space="preserve"> 1961.98</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1961.98</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>21498.26958994099</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22414.3568719471</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22908.32226285144</v>
-      </c>
-      <c r="J4" t="n">
-        <v>370.928</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>106.50</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>116.70</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>93.901</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -562,26 +522,6 @@
           <t>2933.94</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3325.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>305.288</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -602,26 +542,6 @@
           <t>2713.83</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2713.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.4808</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -642,26 +562,6 @@
           <t xml:space="preserve"> 3118.86</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3438.59</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>159.862</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.4508</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,26 +582,6 @@
           <t>2244.23</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2290.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>15.419</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.5597</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -722,26 +602,6 @@
           <t>3343.34</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3343.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.4799</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -760,26 +620,6 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>3361.59</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3514.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>83.185</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.8846</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -797,8 +637,8 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -903,30 +743,30 @@
         <v>5759.25</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>16525.29563384513</v>
+        <v>15855.83983353778</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>16981.03317026778</v>
+        <v>17109.80429657463</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>17760.84987146394</v>
+        <v>17630.76229642533</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>341.374</v>
+        <v>487.226</v>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>50.803</t>
+          <t>48.131</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>58.603</t>
+          <t>57.742</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>71.423</t>
+          <t>65.264</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -952,36 +792,12 @@
       <c r="F4" t="n">
         <v>9247.92</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>21498.26958994099</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>22414.3568719471</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>22908.32226285144</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>370.928</v>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>106.50</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>116.70</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>93.901</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>10</v>
-      </c>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
